--- a/docs/odh/shr-core-Outcome-model.xlsx
+++ b/docs/odh/shr-core-Outcome-model.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="44">
   <si>
     <t>Path</t>
   </si>
@@ -134,7 +134,7 @@
     <t>*</t>
   </si>
   <si>
-    <t>The result of performing an action or behavior, for example, an adverse reaction or new finding.</t>
+    <t>The result of an event or performance of an action or behavior, for example, an adverse reaction or procedure.</t>
   </si>
   <si>
     <t>shr-core-Outcome-model.value</t>
@@ -147,13 +147,7 @@
 </t>
   </si>
   <si>
-    <t>Code representing the result of performing an action or behavior, for example, an adverse reaction or new finding.</t>
-  </si>
-  <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/procedure-outcome</t>
+    <t>Code representing the result of an event or performance of an action or behavior, for example, an adverse reaction or procedure.</t>
   </si>
 </sst>
 </file>
@@ -302,7 +296,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ3"/>
+  <dimension ref="A1:AI3"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -321,7 +315,7 @@
     <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="103.50390625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="116.8515625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -335,7 +329,7 @@
     <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="18.9140625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="44.90234375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="17.07421875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
@@ -608,11 +602,13 @@
         <v>36</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X3" s="2"/>
+        <v>36</v>
+      </c>
+      <c r="X3" t="s" s="2">
+        <v>36</v>
+      </c>
       <c r="Y3" t="s" s="2">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="Z3" t="s" s="2">
         <v>36</v>
